--- a/src/co/jp/PetHotel/Pet_Hotel_UML.xlsx
+++ b/src/co/jp/PetHotel/Pet_Hotel_UML.xlsx
@@ -7033,212 +7033,6 @@
         <a:xfrm flipH="1">
           <a:off x="7627620" y="7032625"/>
           <a:ext cx="1905" cy="518795"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="22225" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="118" name="直接箭头连接符 117"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2567940" y="2346960"/>
-          <a:ext cx="1363980" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="22225" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>90170</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="119" name="直接箭头连接符 118"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2559050" y="3802380"/>
-          <a:ext cx="1365250" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="22225" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>126365</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="直接箭头连接符 119"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="99" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6324600" y="2755265"/>
-          <a:ext cx="1788160" cy="10795"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="22225" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>33020</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>146685</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="直接箭头连接符 120"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10525760" y="2773680"/>
-          <a:ext cx="1803400" cy="1905"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -23972,8 +23766,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="61" zoomScaleNormal="61" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -23989,8 +23783,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B124" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="S94" sqref="S94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
